--- a/_RESULTS/Error_budget/error_budget_area1a.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area1a.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5243946258957612</v>
+        <v>0.5247384564419432</v>
       </c>
       <c r="E2" t="n">
         <v>2.752613884081865</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6639841277821388</v>
+        <v>0.6643467506281965</v>
       </c>
       <c r="E3" t="n">
         <v>2.631316623080948</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7362229359856024</v>
+        <v>0.7364764327768051</v>
       </c>
       <c r="E4" t="n">
         <v>2.516546197210338</v>
